--- a/automate_report/data_output/report_penjualan_2019.xlsx
+++ b/automate_report/data_output/report_penjualan_2019.xlsx
@@ -2216,6 +2216,208 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sales berdasarkan produk</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Report'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Report'!$B$2:$G$22</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$B$2:$B$22</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Report'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Report'!$B$2:$G$22</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$C$2:$C$22</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Report'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Report'!$B$2:$G$22</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$D$2:$D$22</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'Report'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Report'!$B$2:$G$22</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$E$2:$E$22</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'Report'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Report'!$B$2:$G$22</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$F$2:$F$22</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'Report'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Report'!$B$2:$G$22</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$G$2:$G$22</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="2"/>
   <chart>
     <title>
@@ -2252,12 +2454,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Report'!$B$2:$G$22</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Report'!$B$2:$B$22</f>
+              <f>'Report'!$B$2:$G$23</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$B$2:$B$23</f>
             </numRef>
           </val>
         </ser>
@@ -2276,12 +2478,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Report'!$B$2:$G$22</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Report'!$C$2:$C$22</f>
+              <f>'Report'!$B$2:$G$23</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$C$2:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -2300,12 +2502,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Report'!$B$2:$G$22</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Report'!$D$2:$D$22</f>
+              <f>'Report'!$B$2:$G$23</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$D$2:$D$23</f>
             </numRef>
           </val>
         </ser>
@@ -2324,12 +2526,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Report'!$B$2:$G$22</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Report'!$E$2:$E$22</f>
+              <f>'Report'!$B$2:$G$23</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$E$2:$E$23</f>
             </numRef>
           </val>
         </ser>
@@ -2348,12 +2550,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Report'!$B$2:$G$22</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Report'!$F$2:$F$22</f>
+              <f>'Report'!$B$2:$G$23</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$F$2:$F$23</f>
             </numRef>
           </val>
         </ser>
@@ -2372,12 +2574,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Report'!$B$2:$G$22</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Report'!$G$2:$G$22</f>
+              <f>'Report'!$B$2:$G$23</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$G$2:$G$23</f>
             </numRef>
           </val>
         </ser>
@@ -4837,6 +5039,28 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="18" name="Chart 18"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -5129,7 +5353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -5743,6 +5967,37 @@
         <v/>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B24" s="2">
+        <f>SUM(B2:B23)</f>
+        <v/>
+      </c>
+      <c r="C24" s="2">
+        <f>SUM(C2:C23)</f>
+        <v/>
+      </c>
+      <c r="D24" s="2">
+        <f>SUM(D2:D23)</f>
+        <v/>
+      </c>
+      <c r="E24" s="2">
+        <f>SUM(E2:E23)</f>
+        <v/>
+      </c>
+      <c r="F24" s="2">
+        <f>SUM(F2:F23)</f>
+        <v/>
+      </c>
+      <c r="G24" s="2">
+        <f>SUM(G2:G23)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
